--- a/day6/図.xlsx
+++ b/day6/図.xlsx
@@ -2,18 +2,19 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
-  <workbookPr/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\home\github\vba\day6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80980516-7254-415F-B375-DCE30F031467}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E578CA6-0E74-42E1-A36C-827186B836D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-57600" yWindow="7740" windowWidth="28800" windowHeight="24000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="38040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="45">
   <si>
     <t>Shapes.AddChart</t>
     <phoneticPr fontId="1"/>
@@ -56,12 +57,566 @@
     <t>2 つめのグラフ</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t xml:space="preserve">    </t>
+  </si>
+  <si>
+    <t>End Sub</t>
+  </si>
+  <si>
+    <t>'</t>
+  </si>
+  <si>
+    <t>With WS_Graph</t>
+  </si>
+  <si>
+    <t>    End With</t>
+  </si>
+  <si>
+    <t>End With</t>
+  </si>
+  <si>
+    <t>Private Sub CommandButton1_Click()</t>
+  </si>
+  <si>
+    <t>With .ChartObjects(1)</t>
+  </si>
+  <si>
+    <t>With .Chart</t>
+  </si>
+  <si>
+    <t>With .ChartTitle</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Dim WS_Data             As Worksheet                    ' </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>シート「データ」</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Dim WS_Graph            As Worksheet                    ' </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>シート「グラフ」</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Dim RNG_Graph           As Range                        ' </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>グラフの表示場所</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">' </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>初期処理</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Set WS_Data = Worksheets("</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>データ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>")</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Set WS_Graph = Worksheets("</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>グラフ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>")</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">' 1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>つめのグラフの作成</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">' </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>グラフの表示領域作成</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">' </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>グラフの表示場所</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>グラフの表示位置・サイズに関するコードを記述</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">' 1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>系列目のグラフ</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>系列目のグラフに関するコードを記述</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">' 2 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>系列目のグラフ</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">.SeriesCollection.NewSeries                     ' </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>新しいグラフの系列を追加　→　</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">2 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>系列目</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">With .SeriesCollection(2)                       ' 2 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>系列め</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>系列目のグラフに関するコードを記述</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">' 3 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>系列目のグラフ</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">With .SeriesCollection(3)                       ' 3 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>系列め</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">3 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>系列目のグラフに関するコードを記述</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">' </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>軸の書式設定</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">.HasTitle = True                                ' </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>タイトル表示</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> On</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>タイトルに関するコードを記述</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">With .Axes(xlCategory, 1)                       ' </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>横軸</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>横軸に関するコードを記述</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">With .Axes(xlValue, 1)                          ' </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>縦軸：第</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>軸</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>縦軸（第</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> 1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>軸）に関するコードを記述</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">With .Axes(xlValue, 2)                          ' </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>縦軸：第</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>軸</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>縦軸（第</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> 2 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>軸）に関するコードを記述</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">.Shapes.AddChart                                        ' </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>グラフの表示領域を追加</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>グラフの土台を作成</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -83,13 +638,54 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="5"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -104,7 +700,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -118,6 +714,17 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1381,9 +1988,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="B3:L24"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="V33" sqref="V33"/>
     </sheetView>
   </sheetViews>
@@ -1461,4 +2069,612 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CDC25DB-C0AF-4B1E-A210-3B3444C19C2C}">
+  <dimension ref="B2:G82"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="F35" sqref="F35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="9" style="6"/>
+    <col min="2" max="31" width="4.625" style="6" customWidth="1"/>
+    <col min="32" max="16384" width="9" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3">
+      <c r="B2" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3">
+      <c r="B3" s="7"/>
+    </row>
+    <row r="4" spans="2:3">
+      <c r="B4" s="5"/>
+      <c r="C4" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3">
+      <c r="B5" s="5"/>
+      <c r="C5" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3">
+      <c r="B6" s="5"/>
+      <c r="C6" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3">
+      <c r="B7" s="5"/>
+    </row>
+    <row r="8" spans="2:3">
+      <c r="B8" s="5"/>
+      <c r="C8" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3">
+      <c r="B9" s="5"/>
+      <c r="C9" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3">
+      <c r="B10" s="5"/>
+      <c r="C10" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3">
+      <c r="B11" s="5"/>
+      <c r="C11" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3">
+      <c r="B12" s="5"/>
+      <c r="C12" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3">
+      <c r="B13" s="5"/>
+    </row>
+    <row r="14" spans="2:3">
+      <c r="B14" s="5"/>
+      <c r="C14" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3">
+      <c r="B15" s="5"/>
+      <c r="C15" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3">
+      <c r="B16" s="5"/>
+      <c r="C16" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6">
+      <c r="B17" s="5"/>
+      <c r="C17" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6">
+      <c r="B18" s="5"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6">
+      <c r="B19" s="5"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6">
+      <c r="B20" s="5"/>
+      <c r="C20" s="8"/>
+    </row>
+    <row r="21" spans="2:6">
+      <c r="B21" s="5"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6">
+      <c r="B22" s="5"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="9"/>
+    </row>
+    <row r="23" spans="2:6">
+      <c r="B23" s="5"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6">
+      <c r="B24" s="7"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="9"/>
+    </row>
+    <row r="25" spans="2:6">
+      <c r="B25" s="5"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6">
+      <c r="B26" s="5"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="9"/>
+    </row>
+    <row r="27" spans="2:6">
+      <c r="B27" s="5"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6">
+      <c r="B28" s="5"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="10"/>
+    </row>
+    <row r="29" spans="2:6">
+      <c r="B29" s="5"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6">
+      <c r="B30" s="7"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="10"/>
+    </row>
+    <row r="31" spans="2:6">
+      <c r="B31" s="5"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6">
+      <c r="B32" s="7"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="10"/>
+    </row>
+    <row r="33" spans="2:7">
+      <c r="B33" s="5"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="10"/>
+    </row>
+    <row r="34" spans="2:7">
+      <c r="B34" s="5"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7">
+      <c r="B35" s="5"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7">
+      <c r="B36" s="5"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7">
+      <c r="B37" s="5"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="11"/>
+    </row>
+    <row r="38" spans="2:7">
+      <c r="B38" s="5"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="11"/>
+      <c r="G38" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7">
+      <c r="B39" s="5"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="11"/>
+    </row>
+    <row r="40" spans="2:7">
+      <c r="B40" s="5"/>
+      <c r="C40" s="8"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="41" spans="2:7">
+      <c r="B41" s="5"/>
+      <c r="C41" s="8"/>
+      <c r="D41" s="9"/>
+      <c r="E41" s="10"/>
+    </row>
+    <row r="42" spans="2:7">
+      <c r="B42" s="5"/>
+      <c r="C42" s="8"/>
+      <c r="D42" s="9"/>
+      <c r="E42" s="10"/>
+      <c r="F42" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="43" spans="2:7">
+      <c r="B43" s="5"/>
+      <c r="C43" s="8"/>
+      <c r="D43" s="9"/>
+      <c r="E43" s="10"/>
+      <c r="F43" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="44" spans="2:7">
+      <c r="B44" s="5"/>
+      <c r="C44" s="8"/>
+      <c r="D44" s="9"/>
+      <c r="E44" s="10"/>
+      <c r="F44" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="45" spans="2:7">
+      <c r="B45" s="5"/>
+      <c r="C45" s="8"/>
+      <c r="D45" s="9"/>
+      <c r="E45" s="10"/>
+      <c r="F45" s="11"/>
+    </row>
+    <row r="46" spans="2:7">
+      <c r="B46" s="5"/>
+      <c r="C46" s="8"/>
+      <c r="D46" s="9"/>
+      <c r="E46" s="10"/>
+      <c r="F46" s="11"/>
+      <c r="G46" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="47" spans="2:7">
+      <c r="B47" s="5"/>
+      <c r="C47" s="8"/>
+      <c r="D47" s="9"/>
+      <c r="E47" s="10"/>
+      <c r="F47" s="11"/>
+    </row>
+    <row r="48" spans="2:7">
+      <c r="B48" s="5"/>
+      <c r="C48" s="8"/>
+      <c r="D48" s="9"/>
+      <c r="E48" s="10"/>
+      <c r="F48" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="49" spans="2:7">
+      <c r="B49" s="5"/>
+      <c r="C49" s="8"/>
+      <c r="D49" s="9"/>
+      <c r="E49" s="10"/>
+    </row>
+    <row r="50" spans="2:7">
+      <c r="B50" s="5"/>
+      <c r="C50" s="8"/>
+      <c r="D50" s="9"/>
+      <c r="E50" s="10"/>
+      <c r="F50" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="51" spans="2:7">
+      <c r="B51" s="5"/>
+      <c r="C51" s="8"/>
+      <c r="D51" s="9"/>
+      <c r="E51" s="10"/>
+      <c r="F51" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="52" spans="2:7">
+      <c r="B52" s="5"/>
+      <c r="C52" s="8"/>
+      <c r="D52" s="9"/>
+      <c r="E52" s="10"/>
+      <c r="F52" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="53" spans="2:7">
+      <c r="B53" s="5"/>
+      <c r="C53" s="8"/>
+      <c r="D53" s="9"/>
+      <c r="E53" s="10"/>
+      <c r="F53" s="11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54" spans="2:7">
+      <c r="B54" s="5"/>
+      <c r="C54" s="8"/>
+      <c r="D54" s="9"/>
+      <c r="E54" s="10"/>
+      <c r="F54" s="11"/>
+      <c r="G54" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="55" spans="2:7">
+      <c r="B55" s="7"/>
+      <c r="C55" s="8"/>
+      <c r="D55" s="9"/>
+      <c r="E55" s="10"/>
+      <c r="F55" s="11"/>
+    </row>
+    <row r="56" spans="2:7">
+      <c r="B56" s="5"/>
+      <c r="C56" s="8"/>
+      <c r="D56" s="9"/>
+      <c r="E56" s="10"/>
+      <c r="F56" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="57" spans="2:7">
+      <c r="B57" s="5"/>
+      <c r="C57" s="8"/>
+      <c r="D57" s="9"/>
+      <c r="E57" s="10"/>
+    </row>
+    <row r="58" spans="2:7">
+      <c r="B58" s="5"/>
+      <c r="C58" s="8"/>
+      <c r="D58" s="9"/>
+      <c r="E58" s="10"/>
+      <c r="F58" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="59" spans="2:7">
+      <c r="B59" s="5"/>
+      <c r="C59" s="8"/>
+      <c r="D59" s="9"/>
+      <c r="E59" s="10"/>
+      <c r="F59" s="11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60" spans="2:7">
+      <c r="B60" s="5"/>
+      <c r="C60" s="8"/>
+      <c r="D60" s="9"/>
+      <c r="E60" s="10"/>
+      <c r="F60" s="11"/>
+      <c r="G60" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="61" spans="2:7">
+      <c r="B61" s="7"/>
+      <c r="C61" s="8"/>
+      <c r="D61" s="9"/>
+      <c r="E61" s="10"/>
+      <c r="F61" s="11"/>
+    </row>
+    <row r="62" spans="2:7">
+      <c r="B62" s="5"/>
+      <c r="C62" s="8"/>
+      <c r="D62" s="9"/>
+      <c r="E62" s="10"/>
+      <c r="F62" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="63" spans="2:7">
+      <c r="B63" s="5"/>
+      <c r="C63" s="8"/>
+      <c r="D63" s="9"/>
+      <c r="E63" s="10"/>
+    </row>
+    <row r="64" spans="2:7">
+      <c r="B64" s="5"/>
+      <c r="C64" s="8"/>
+      <c r="D64" s="9"/>
+      <c r="E64" s="10"/>
+      <c r="F64" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="65" spans="2:7">
+      <c r="B65" s="5"/>
+      <c r="C65" s="8"/>
+      <c r="D65" s="9"/>
+      <c r="E65" s="10"/>
+      <c r="F65" s="11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66" spans="2:7">
+      <c r="B66" s="5"/>
+      <c r="C66" s="8"/>
+      <c r="D66" s="9"/>
+      <c r="E66" s="10"/>
+      <c r="F66" s="11"/>
+      <c r="G66" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="67" spans="2:7">
+      <c r="B67" s="7"/>
+      <c r="C67" s="8"/>
+      <c r="D67" s="9"/>
+      <c r="E67" s="10"/>
+      <c r="F67" s="11"/>
+    </row>
+    <row r="68" spans="2:7">
+      <c r="B68" s="5"/>
+      <c r="C68" s="8"/>
+      <c r="D68" s="9"/>
+      <c r="E68" s="10"/>
+      <c r="F68" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="69" spans="2:7">
+      <c r="B69" s="5"/>
+      <c r="C69" s="8"/>
+      <c r="D69" s="9"/>
+      <c r="E69" s="10"/>
+    </row>
+    <row r="70" spans="2:7">
+      <c r="B70" s="5"/>
+      <c r="C70" s="8"/>
+      <c r="D70" s="9"/>
+      <c r="E70" s="10"/>
+      <c r="F70" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="71" spans="2:7">
+      <c r="B71" s="5"/>
+      <c r="C71" s="8"/>
+      <c r="D71" s="9"/>
+      <c r="E71" s="10"/>
+      <c r="F71" s="11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="72" spans="2:7">
+      <c r="B72" s="5"/>
+      <c r="C72" s="8"/>
+      <c r="D72" s="9"/>
+      <c r="E72" s="10"/>
+      <c r="F72" s="11"/>
+      <c r="G72" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="73" spans="2:7">
+      <c r="B73" s="7"/>
+      <c r="C73" s="8"/>
+      <c r="D73" s="9"/>
+      <c r="E73" s="10"/>
+      <c r="F73" s="11"/>
+    </row>
+    <row r="74" spans="2:7">
+      <c r="B74" s="5"/>
+      <c r="C74" s="8"/>
+      <c r="D74" s="9"/>
+      <c r="E74" s="10"/>
+      <c r="F74" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="75" spans="2:7">
+      <c r="B75" s="5"/>
+      <c r="C75" s="8"/>
+      <c r="D75" s="9"/>
+      <c r="E75" s="10"/>
+    </row>
+    <row r="76" spans="2:7">
+      <c r="B76" s="5"/>
+      <c r="C76" s="8"/>
+      <c r="D76" s="9"/>
+      <c r="E76" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="77" spans="2:7">
+      <c r="B77" s="5"/>
+      <c r="C77" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D77" s="9"/>
+    </row>
+    <row r="78" spans="2:7">
+      <c r="B78" s="5"/>
+      <c r="C78" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D78" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="79" spans="2:7">
+      <c r="B79" s="5"/>
+      <c r="C79" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="80" spans="2:7">
+      <c r="B80" s="5"/>
+      <c r="C80" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="81" spans="2:2">
+      <c r="B81" s="5"/>
+    </row>
+    <row r="82" spans="2:2">
+      <c r="B82" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>